--- a/GridSearchResults/Hyperparameters_NTSK-RLS_MackeyGlass.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-RLS_MackeyGlass.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -490,17 +490,19 @@
       <c r="D2" t="n">
         <v>0.2</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8263355243949962</v>
+        <v>0.8284200847349987</v>
       </c>
       <c r="G2" t="n">
-        <v>3.684343554190358</v>
+        <v>3.693637885881631</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6543117922277857</v>
+        <v>0.655919892663091</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -521,17 +523,19 @@
       <c r="D3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>0.2179103837845414</v>
+        <v>0.2179103806544387</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9715868363223714</v>
+        <v>0.971586822366329</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1695656411963971</v>
+        <v>0.1695656338448241</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -552,17 +556,19 @@
       <c r="D4" t="n">
         <v>0.6</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>0.2166320229881225</v>
+        <v>0.216632022992024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9658870688294222</v>
+        <v>0.965887068846818</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1681594209002064</v>
+        <v>0.1681594209027977</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -583,17 +589,19 @@
       <c r="D5" t="n">
         <v>0.8</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1892557507210633</v>
+        <v>0.1892557507211808</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8438257640842979</v>
+        <v>0.8438257640848219</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1312410552029736</v>
+        <v>0.1312410552030424</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -614,17 +622,19 @@
       <c r="D6" t="n">
         <v>0.9</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>0.1813287051688413</v>
+        <v>0.181328705168839</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8084818168354057</v>
+        <v>0.8084818168353956</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1275946954584692</v>
+        <v>0.127594695458468</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -645,17 +655,19 @@
       <c r="D7" t="n">
         <v>0.91</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>0.176329831375712</v>
+        <v>0.1763298313757094</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7861935720556458</v>
+        <v>0.786193572055634</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1251791102276759</v>
+        <v>0.1251791102276751</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -676,17 +688,19 @@
       <c r="D8" t="n">
         <v>0.92</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>0.1682753659500376</v>
+        <v>0.1682753659500402</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7502815037765292</v>
+        <v>0.750281503776541</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1212318459407635</v>
+        <v>0.1212318459407656</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -707,17 +721,19 @@
       <c r="D9" t="n">
         <v>0.93</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>0.1569494668392427</v>
+        <v>0.1569494668392412</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6997832471333585</v>
+        <v>0.6997832471333522</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1154952920977725</v>
+        <v>0.1154952920977721</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -738,17 +754,19 @@
       <c r="D10" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>0.1435270275349204</v>
+        <v>0.1435270275349208</v>
       </c>
       <c r="G10" t="n">
-        <v>0.639937244786312</v>
+        <v>0.6399372447863136</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1083065630062121</v>
+        <v>0.1083065630062123</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -769,17 +787,19 @@
       <c r="D11" t="n">
         <v>0.95</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>0.1305558347890532</v>
+        <v>0.1305558347890536</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5821031943642553</v>
+        <v>0.5821031943642572</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1006629752162534</v>
+        <v>0.1006629752162537</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -800,17 +820,19 @@
       <c r="D12" t="n">
         <v>0.96</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>0.1201565341138499</v>
+        <v>0.1201565341138518</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5357363188280441</v>
+        <v>0.5357363188280526</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09357753230076651</v>
+        <v>0.09357753230076804</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -831,17 +853,19 @@
       <c r="D13" t="n">
         <v>0.97</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1120166337044634</v>
+        <v>0.1120166337044638</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4994433255829189</v>
+        <v>0.4994433255829205</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08886493754502618</v>
+        <v>0.08886493754502671</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -862,14 +886,16 @@
       <c r="D14" t="n">
         <v>0.98</v>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1038296379905923</v>
+        <v>0.1038296379905924</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4629403507063763</v>
+        <v>0.4629403507063769</v>
       </c>
       <c r="H14" t="n">
         <v>0.08355876720772551</v>
@@ -893,17 +919,19 @@
       <c r="D15" t="n">
         <v>0.99</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>0.09341882198238866</v>
+        <v>0.09341882198238849</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4165221322934986</v>
+        <v>0.4165221322934979</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07543156409866549</v>
+        <v>0.07543156409866535</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -924,17 +952,19 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>0.08531923223119328</v>
+        <v>0.08531923223119302</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3804088702946857</v>
+        <v>0.3804088702946845</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06905108004550756</v>
+        <v>0.0690510800455076</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
